--- a/individual_case_outputs/avey/299.xlsx
+++ b/individual_case_outputs/avey/299.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>chronic supurative otitis media  with conductive hearing loss</t>
+          <t>otitis media with effusion</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>otitis media with effusion</t>
+          <t>eustachian tube dysfunction</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>otitis media with effusion</t>
+          <t>clogged ear</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
